--- a/Sales-Dashboard.xlsx
+++ b/Sales-Dashboard.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Data Science - ML Journey\BI Projects\"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2499" uniqueCount="150">
   <si>
     <t>PRODUCT ID</t>
   </si>
@@ -473,17 +473,45 @@
   <si>
     <t>Product/UOM</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales </t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Profit%</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>Profit %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month </t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +533,18 @@
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -557,10 +597,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,11 +638,17 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$$-409]#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -854,8 +901,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="SLICER" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1297,7 +1344,7 @@
             <c:numRef>
               <c:f>Analysis!$B$2:$B$33</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4254.88</c:v>
@@ -1470,7 +1517,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="[$$-409]#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1597,7 +1644,1053 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF3B1FF6-B55C-444F-8C60-850C26DD7FBE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{775E26F5-4233-4B1F-96FB-955AC7F02FB0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4E058E0A-4D4B-4BF0-AB38-A79094D1F003}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8E63978A-E49D-43AD-9B24-02417BC3DBCE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D319778-1537-4E2A-A6C4-D716E059B4AA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3729BAD8-6C9F-45BB-AAED-2AAEF644B1D0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF7BF6B1-E66C-4842-9DEE-314DDC31C1DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CB211AC7-AC79-45DE-BC55-3CC67C4500F6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B61F72D4-20F4-49E3-9D0E-D7B89480A4FC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AD9B63E4-B343-4C87-8447-63595D9A580E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0FE8D558-FC41-4F2E-855B-A4944E13CA50}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9D429E39-BE24-42A8-842A-A67D31412DBD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-AAED-4351-A058-282162309C39}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$P$3:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$Q$3:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20046.739999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15174.68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12763.120000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18273.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11806.480000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15922.429999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19768.479999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21937.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22261.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12339.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19647.870000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18196.780000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Analysis!$S$3:$S$14</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>20%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>20%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>25%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>18%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>21%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>19%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>19%</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>23%</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>23%</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>24%</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>15%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AAED-4351-A058-282162309C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$P$3:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$R$3:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>[$$-409]#,##0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3319.739999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2489.6800000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2531.1200000000026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3947.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1788.4800000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2791.4299999999985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3165.4799999999959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3453.880000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4209.8600000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2329.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3817.8700000000026</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2384.7800000000025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AAED-4351-A058-282162309C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:overlap val="100"/>
+        <c:axId val="2104490383"/>
+        <c:axId val="2104492879"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2104490383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104492879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2104492879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="[$$-409]#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104490383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2158,6 +3251,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Analysis!$Q$1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Analysis!$R$1" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="Analysis!$S$1" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2378,16 +3986,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -2417,7 +4025,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8100060" y="1912621"/>
+              <a:off x="5722620" y="3489961"/>
               <a:ext cx="1303020" cy="1333500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2451,15 +4059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2478,6 +4086,228 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>350520</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>15240</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>632460</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>106680</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>868680</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>1150620</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>1257300</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>1539240</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -12173,8 +14003,510 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PaymentMode" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Payment Mode">
+  <location ref="AE1:AF3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="46">
+        <item x="16"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="42"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SalesType" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sales Type">
+  <location ref="AB1:AC5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="46">
+        <item x="16"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="42"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of TOTAL BUYING VALUE" fld="11" baseField="13" baseItem="0"/>
+    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ProductWise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product/UOM">
-  <location ref="K1:M87" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="U1:W87" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -12614,9 +14946,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Monthly" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="MONTH">
-  <location ref="G1:I13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="L1:N13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -12833,7 +15165,206 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CategoryWise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
+  <location ref="Y1:Z6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="46">
+        <item x="16"/>
+        <item x="29"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="36"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item x="20"/>
+        <item x="31"/>
+        <item x="35"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="27"/>
+        <item x="21"/>
+        <item x="39"/>
+        <item x="30"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="32"/>
+        <item x="22"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="42"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="43"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="41"/>
+        <item x="10"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="44"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="33">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="29"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="30"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="27"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Daily" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Day">
   <location ref="A1:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
@@ -13034,8 +15565,13 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
+    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0" numFmtId="169"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -13047,707 +15583,6 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PaymentMode" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Payment Mode">
-  <location ref="U1:V3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="46">
-        <item x="16"/>
-        <item x="29"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="36"/>
-        <item x="25"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="42"/>
-        <item x="26"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="28"/>
-        <item x="5"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="34"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SalesType" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Sales Type">
-  <location ref="R1:S5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="46">
-        <item x="16"/>
-        <item x="29"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="36"/>
-        <item x="25"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="42"/>
-        <item x="26"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="28"/>
-        <item x="5"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="34"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TotalSales" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D1:E2" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of TOTAL BUYING VALUE" fld="11" baseField="13" baseItem="0"/>
-    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CategoryWise" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Category">
-  <location ref="O1:P6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="46">
-        <item x="16"/>
-        <item x="29"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="36"/>
-        <item x="25"/>
-        <item x="37"/>
-        <item x="20"/>
-        <item x="31"/>
-        <item x="35"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="27"/>
-        <item x="21"/>
-        <item x="39"/>
-        <item x="30"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="32"/>
-        <item x="22"/>
-        <item x="12"/>
-        <item x="0"/>
-        <item x="7"/>
-        <item x="42"/>
-        <item x="26"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="28"/>
-        <item x="5"/>
-        <item x="18"/>
-        <item x="38"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="43"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="34"/>
-        <item x="17"/>
-        <item x="41"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="11"/>
-        <item x="44"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="22"/>
-        <item x="29"/>
-        <item x="17"/>
-        <item x="23"/>
-        <item x="30"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="27"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="28"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL SELLING VALUE" fld="12" baseField="13" baseItem="0"/>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -13866,46 +15701,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InputData" displayName="InputData" ref="A1:P529" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="InputData" displayName="InputData" ref="A1:P529" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27">
   <autoFilter ref="A1:P529"/>
   <sortState ref="A2:E527">
     <sortCondition ref="A1:A527"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="DATE" dataDxfId="25"/>
-    <tableColumn id="3" name="PRODUCT ID" dataDxfId="24"/>
-    <tableColumn id="2" name="QUANTITY" dataDxfId="23"/>
-    <tableColumn id="4" name="SALE TYPE" dataDxfId="22"/>
-    <tableColumn id="5" name="PAYMENT MODE" dataDxfId="21"/>
-    <tableColumn id="6" name="DISCOUNT %" dataDxfId="20"/>
-    <tableColumn id="8" name="PRODUCT" dataDxfId="19">
+    <tableColumn id="1" name="DATE" dataDxfId="26"/>
+    <tableColumn id="3" name="PRODUCT ID" dataDxfId="25"/>
+    <tableColumn id="2" name="QUANTITY" dataDxfId="24"/>
+    <tableColumn id="4" name="SALE TYPE" dataDxfId="23"/>
+    <tableColumn id="5" name="PAYMENT MODE" dataDxfId="22"/>
+    <tableColumn id="6" name="DISCOUNT %" dataDxfId="21"/>
+    <tableColumn id="8" name="PRODUCT" dataDxfId="20">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],MasterData[],2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="CATEGORY" dataDxfId="18">
+    <tableColumn id="9" name="CATEGORY" dataDxfId="19">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],MasterData[],3,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="UOM" dataDxfId="17">
+    <tableColumn id="10" name="UOM" dataDxfId="18">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],MasterData[],4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="BUYING PRIZE" dataDxfId="16">
+    <tableColumn id="11" name="BUYING PRIZE" dataDxfId="17">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],MasterData[],5,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="SELLING PRICE" dataDxfId="15">
+    <tableColumn id="12" name="SELLING PRICE" dataDxfId="16">
       <calculatedColumnFormula>VLOOKUP(InputData[[#This Row],[PRODUCT ID]],MasterData[],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="TOTAL BUYING VALUE" dataDxfId="14">
+    <tableColumn id="13" name="TOTAL BUYING VALUE" dataDxfId="15">
       <calculatedColumnFormula>InputData[[#This Row],[BUYING PRIZE]]*InputData[[#This Row],[QUANTITY]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="TOTAL SELLING VALUE" dataDxfId="13">
+    <tableColumn id="14" name="TOTAL SELLING VALUE" dataDxfId="14">
       <calculatedColumnFormula>InputData[[#This Row],[SELLING PRICE]]*InputData[[#This Row],[QUANTITY]]*(1-InputData[[#This Row],[DISCOUNT %]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="DAY" dataDxfId="12">
+    <tableColumn id="15" name="DAY" dataDxfId="13">
       <calculatedColumnFormula>DAY(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTH" dataDxfId="11">
+    <tableColumn id="16" name="MONTH" dataDxfId="12">
       <calculatedColumnFormula>TEXT(InputData[[#This Row],[DATE]],"mmm")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="YEAR" dataDxfId="10">
+    <tableColumn id="17" name="YEAR" dataDxfId="11">
       <calculatedColumnFormula>YEAR(InputData[[#This Row],[DATE]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13914,15 +15749,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MasterData" displayName="MasterData" ref="A1:F46" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9">
   <autoFilter ref="A1:F46"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PRODUCT ID" dataDxfId="6"/>
-    <tableColumn id="2" name="PRODUCT" dataDxfId="5"/>
-    <tableColumn id="3" name="CATEGORY" dataDxfId="4"/>
-    <tableColumn id="4" name="UOM" dataDxfId="3"/>
-    <tableColumn id="5" name="BUYING PRIZE" dataDxfId="2"/>
-    <tableColumn id="6" name="SELLING PRICE" dataDxfId="1"/>
+    <tableColumn id="1" name="PRODUCT ID" dataDxfId="7"/>
+    <tableColumn id="2" name="PRODUCT" dataDxfId="6"/>
+    <tableColumn id="3" name="CATEGORY" dataDxfId="5"/>
+    <tableColumn id="4" name="UOM" dataDxfId="4"/>
+    <tableColumn id="5" name="BUYING PRIZE" dataDxfId="3"/>
+    <tableColumn id="6" name="SELLING PRICE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13932,7 +15767,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:P78" totalsRowShown="0">
   <autoFilter ref="A1:P78"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="DATE" dataDxfId="0"/>
+    <tableColumn id="1" name="DATE" dataDxfId="1"/>
     <tableColumn id="2" name="PRODUCT ID"/>
     <tableColumn id="3" name="QUANTITY"/>
     <tableColumn id="4" name="SALE TYPE"/>
@@ -14250,7 +16085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P529"/>
@@ -45982,7 +47817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:F46"/>
@@ -46939,6 +48774,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -50871,11 +52707,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50884,22 +52721,28 @@
     <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26.44140625" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="26.77734375" customWidth="1"/>
-    <col min="17" max="17" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" customWidth="1"/>
-    <col min="19" max="19" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="26.77734375" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="13" max="13" width="26.44140625" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.77734375" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.77734375" customWidth="1"/>
+    <col min="26" max="26" width="26.77734375" customWidth="1"/>
+    <col min="27" max="27" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12" customWidth="1"/>
+    <col min="29" max="29" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>139</v>
       </c>
@@ -50912,48 +52755,69 @@
       <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>122</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="Q1" t="b">
+        <v>1</v>
+      </c>
+      <c r="R1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U1" s="16" t="s">
         <v>140</v>
-      </c>
-      <c r="L1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="P1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="S1" t="s">
-        <v>121</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="V1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="20">
         <v>4254.88</v>
       </c>
       <c r="D2" s="12">
@@ -50965,1313 +52829,1648 @@
       <c r="G2" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="12">
+      <c r="L2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="12">
         <v>16727</v>
       </c>
-      <c r="I2" s="12">
+      <c r="N2" s="12">
         <v>20046.739999999998</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12">
+      <c r="V2" s="12">
         <v>5297.88</v>
       </c>
-      <c r="M2" s="12">
+      <c r="W2" s="12">
         <v>51</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="Y2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="12">
+      <c r="Z2" s="12">
         <v>34994.070000000007</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="AB2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="S2" s="12">
+      <c r="AC2" s="12">
         <v>208140.15000000005</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="AE2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="V2" s="12">
+      <c r="AF2" s="12">
         <v>104529.88000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="20">
         <v>10105.900000000001</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="12">
+      <c r="L3" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="12">
         <v>12685</v>
       </c>
-      <c r="I3" s="12">
+      <c r="N3" s="12">
         <v>15174.68</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>IF($Q$1=TRUE,VLOOKUP(P3,L:N,3,0),NA())</f>
+        <v>20046.739999999998</v>
+      </c>
+      <c r="R3" s="20">
+        <f>IF($R$1=TRUE,VLOOKUP(P3,L:N,3,0)-VLOOKUP(P3,L:N,2,0),NA())</f>
+        <v>3319.739999999998</v>
+      </c>
+      <c r="S3" s="21">
+        <f>IF($S$1=TRUE,R3/VLOOKUP(P3,L:N,2,0),NA())</f>
+        <v>0.19846595324923763</v>
+      </c>
+      <c r="U3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="12">
+      <c r="V3" s="12">
         <v>5297.88</v>
       </c>
-      <c r="M3" s="12">
+      <c r="W3" s="12">
         <v>51</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="Y3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="12">
+      <c r="Z3" s="12">
         <v>56527.09</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="AB3" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="S3" s="12">
+      <c r="AC3" s="12">
         <v>133923.87000000002</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="AE3" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="V3" s="12">
+      <c r="AF3" s="12">
         <v>103610.26999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="20">
         <v>11310.15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="20">
+        <f>GETPIVOTDATA("Sum of TOTAL SELLING VALUE",$D$1)</f>
+        <v>208140.14999999988</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="12">
+      <c r="L4" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="M4" s="12">
         <v>10232</v>
       </c>
-      <c r="I4" s="12">
+      <c r="N4" s="12">
         <v>12763.120000000003</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" ref="Q4:Q14" si="0">IF($Q$1=TRUE,VLOOKUP(P4,L:N,3,0),NA())</f>
+        <v>15174.68</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" ref="R4:R14" si="1">IF($R$1=TRUE,VLOOKUP(P4,L:N,3,0)-VLOOKUP(P4,L:N,2,0),NA())</f>
+        <v>2489.6800000000003</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" ref="S4:S14" si="2">IF($S$1=TRUE,R4/VLOOKUP(P4,L:N,2,0),NA())</f>
+        <v>0.1962696097753252</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12">
+      <c r="V4" s="12">
         <v>4426.8</v>
       </c>
-      <c r="M4" s="12">
+      <c r="W4" s="12">
         <v>31</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="12">
+      <c r="Z4" s="12">
         <v>20743.240000000002</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="AB4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="12">
+      <c r="AC4" s="12">
         <v>59347.900000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="20">
         <v>8714.9700000000012</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="20">
+        <f>GETPIVOTDATA("Sum of TOTAL SELLING VALUE",$D$1)-GETPIVOTDATA("Sum of TOTAL BUYING VALUE",$D$1)</f>
+        <v>36230.149999999878</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="12">
+      <c r="L5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="12">
         <v>14326</v>
       </c>
-      <c r="I5" s="12">
+      <c r="N5" s="12">
         <v>18273.84</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
+        <v>12763.120000000003</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="1"/>
+        <v>2531.1200000000026</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="2"/>
+        <v>0.24737294761532472</v>
+      </c>
+      <c r="U5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12">
+      <c r="V5" s="12">
         <v>4426.8</v>
       </c>
-      <c r="M5" s="12">
+      <c r="W5" s="12">
         <v>31</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="Y5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="12">
+      <c r="Z5" s="12">
         <v>49916.25</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="AB5" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AC5" s="12"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <v>7385.63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="21">
+        <f>E5/GETPIVOTDATA("Sum of TOTAL BUYING VALUE",$D$1)</f>
+        <v>0.21075068349717804</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="12">
+      <c r="L6" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="12">
         <v>10018</v>
       </c>
-      <c r="I6" s="12">
+      <c r="N6" s="12">
         <v>11806.480000000001</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="O6" s="12"/>
+      <c r="P6" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>18273.84</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="1"/>
+        <v>3947.84</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="2"/>
+        <v>0.2755716878402904</v>
+      </c>
+      <c r="U6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="12">
+      <c r="V6" s="12">
         <v>1861.62</v>
       </c>
-      <c r="M6" s="12">
+      <c r="W6" s="12">
         <v>23</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="Y6" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="12">
+      <c r="Z6" s="12">
         <v>45959.500000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="20">
         <v>10625.18</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="12">
+      <c r="L7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M7" s="12">
         <v>13131</v>
       </c>
-      <c r="I7" s="12">
+      <c r="N7" s="12">
         <v>15922.429999999998</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="0"/>
+        <v>11806.480000000001</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="1"/>
+        <v>1788.4800000000014</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="2"/>
+        <v>0.17852665202635271</v>
+      </c>
+      <c r="U7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="12">
+      <c r="V7" s="12">
         <v>1861.62</v>
       </c>
-      <c r="M7" s="12">
+      <c r="W7" s="12">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="20">
         <v>5515.19</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="12">
+      <c r="L8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="M8" s="12">
         <v>16603</v>
       </c>
-      <c r="I8" s="12">
+      <c r="N8" s="12">
         <v>19768.479999999996</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="O8" s="12"/>
+      <c r="P8" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
+        <v>15922.429999999998</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="1"/>
+        <v>2791.4299999999985</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="2"/>
+        <v>0.2125832000609244</v>
+      </c>
+      <c r="U8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="12">
+      <c r="V8" s="12">
         <v>2637.3599999999997</v>
       </c>
-      <c r="M8" s="12">
+      <c r="W8" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="20">
         <v>6635.26</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="12">
+      <c r="L9" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="12">
         <v>18484</v>
       </c>
-      <c r="I9" s="12">
+      <c r="N9" s="12">
         <v>21937.88</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="0"/>
+        <v>19768.479999999996</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="1"/>
+        <v>3165.4799999999959</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="2"/>
+        <v>0.19065711016081408</v>
+      </c>
+      <c r="U9" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="12">
+      <c r="V9" s="12">
         <v>2637.3599999999997</v>
       </c>
-      <c r="M9" s="12">
+      <c r="W9" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="20">
         <v>7212.1</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="12">
+      <c r="L10" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" s="12">
         <v>18052</v>
       </c>
-      <c r="I10" s="12">
+      <c r="N10" s="12">
         <v>22261.86</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="0"/>
+        <v>21937.88</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="1"/>
+        <v>3453.880000000001</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="2"/>
+        <v>0.18685782298203857</v>
+      </c>
+      <c r="U10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="12">
+      <c r="V10" s="12">
         <v>9025.3799999999992</v>
       </c>
-      <c r="M10" s="12">
+      <c r="W10" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="20">
         <v>6447.0900000000011</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="12">
+      <c r="L11" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="12">
         <v>10010</v>
       </c>
-      <c r="I11" s="12">
+      <c r="N11" s="12">
         <v>12339.99</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="0"/>
+        <v>22261.86</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="1"/>
+        <v>4209.8600000000006</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="2"/>
+        <v>0.233207400842012</v>
+      </c>
+      <c r="U11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L11" s="12">
+      <c r="V11" s="12">
         <v>9025.3799999999992</v>
       </c>
-      <c r="M11" s="12">
+      <c r="W11" s="12">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="20">
         <v>4762.75</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="12">
+      <c r="L12" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="12">
         <v>15830</v>
       </c>
-      <c r="I12" s="12">
+      <c r="N12" s="12">
         <v>19647.870000000003</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="0"/>
+        <v>12339.99</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="1"/>
+        <v>2329.9899999999998</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" si="2"/>
+        <v>0.23276623376623373</v>
+      </c>
+      <c r="U12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="12">
+      <c r="V12" s="12">
         <v>2907</v>
       </c>
-      <c r="M12" s="12">
+      <c r="W12" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="20">
         <v>7033.3000000000011</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="12">
+      <c r="L13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" s="12">
         <v>15812</v>
       </c>
-      <c r="I13" s="12">
+      <c r="N13" s="12">
         <v>18196.780000000002</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="O13" s="12"/>
+      <c r="P13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
+        <v>19647.870000000003</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="1"/>
+        <v>3817.8700000000026</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" si="2"/>
+        <v>0.24117940619077718</v>
+      </c>
+      <c r="U13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="12">
+      <c r="V13" s="12">
         <v>2907</v>
       </c>
-      <c r="M13" s="12">
+      <c r="W13" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="20">
         <v>3459.9999999999995</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="P14" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="0"/>
+        <v>18196.780000000002</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="1"/>
+        <v>2384.7800000000025</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="2"/>
+        <v>0.15082089552238823</v>
+      </c>
+      <c r="U14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="12">
+      <c r="V14" s="12">
         <v>1766.01</v>
       </c>
-      <c r="M14" s="12">
+      <c r="W14" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="20">
         <v>7949.3600000000006</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="U15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="12">
+      <c r="V15" s="12">
         <v>1766.01</v>
       </c>
-      <c r="M15" s="12">
+      <c r="W15" s="12">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="20">
         <v>7042.3200000000006</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="U16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="12">
+      <c r="V16" s="12">
         <v>6812.64</v>
       </c>
-      <c r="M16" s="12">
+      <c r="W16" s="12">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="20">
         <v>4660.2199999999993</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="U17" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="12">
+      <c r="V17" s="12">
         <v>6812.64</v>
       </c>
-      <c r="M17" s="12">
+      <c r="W17" s="12">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="20">
         <v>1807.4</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="U18" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="12">
+      <c r="V18" s="12">
         <v>259.38</v>
       </c>
-      <c r="M18" s="12">
+      <c r="W18" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="20">
         <v>8691.07</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="U19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="12">
+      <c r="V19" s="12">
         <v>259.38</v>
       </c>
-      <c r="M19" s="12">
+      <c r="W19" s="12">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="20">
         <v>5097.68</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="U20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="12">
+      <c r="V20" s="12">
         <v>10842.48</v>
       </c>
-      <c r="M20" s="12">
+      <c r="W20" s="12">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="20">
         <v>11539.26</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="U21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L21" s="12">
+      <c r="V21" s="12">
         <v>10842.48</v>
       </c>
-      <c r="M21" s="12">
+      <c r="W21" s="12">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="20">
         <v>6894.8</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="U22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="12">
+      <c r="V22" s="12">
         <v>3968.7999999999997</v>
       </c>
-      <c r="M22" s="12">
+      <c r="W22" s="12">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="20">
         <v>1871.8199999999997</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="U23" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="12">
+      <c r="V23" s="12">
         <v>3968.7999999999997</v>
       </c>
-      <c r="M23" s="12">
+      <c r="W23" s="12">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="20">
         <v>9724.69</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="U24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="12">
+      <c r="V24" s="12">
         <v>8381.1300000000028</v>
       </c>
-      <c r="M24" s="12">
+      <c r="W24" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="20">
         <v>5766.48</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="U25" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="12">
+      <c r="V25" s="12">
         <v>8381.1300000000028</v>
       </c>
-      <c r="M25" s="12">
+      <c r="W25" s="12">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="20">
         <v>10322.5</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="U26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="L26" s="12">
+      <c r="V26" s="12">
         <v>4761.12</v>
       </c>
-      <c r="M26" s="12">
+      <c r="W26" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>26</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="20">
         <v>4498.9399999999996</v>
       </c>
-      <c r="K27" s="18" t="s">
+      <c r="U27" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="12">
+      <c r="V27" s="12">
         <v>4761.12</v>
       </c>
-      <c r="M27" s="12">
+      <c r="W27" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>27</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="20">
         <v>8109.15</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="U28" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="L28" s="12">
+      <c r="V28" s="12">
         <v>6602.4000000000005</v>
       </c>
-      <c r="M28" s="12">
+      <c r="W28" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="20">
         <v>6386.95</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="U29" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="12">
+      <c r="V29" s="12">
         <v>6602.4000000000005</v>
       </c>
-      <c r="M29" s="12">
+      <c r="W29" s="12">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>29</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="20">
         <v>4173.04</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="U30" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="12">
+      <c r="V30" s="12">
         <v>817.43999999999994</v>
       </c>
-      <c r="M30" s="12">
+      <c r="W30" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>30</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="20">
         <v>6965.97</v>
       </c>
-      <c r="K31" s="18" t="s">
+      <c r="U31" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L31" s="12">
+      <c r="V31" s="12">
         <v>817.43999999999994</v>
       </c>
-      <c r="M31" s="12">
+      <c r="W31" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>31</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="20">
         <v>3176.1000000000004</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="U32" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L32" s="12">
+      <c r="V32" s="12">
         <v>1031.68</v>
       </c>
-      <c r="M32" s="12">
+      <c r="W32" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="20">
         <v>208140.15000000005</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="U33" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="12">
+      <c r="V33" s="12">
         <v>1031.68</v>
       </c>
-      <c r="M33" s="12">
+      <c r="W33" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K34" s="17" t="s">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="12">
+      <c r="V34" s="12">
         <v>6741.5400000000009</v>
       </c>
-      <c r="M34" s="12">
+      <c r="W34" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K35" s="18" t="s">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U35" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L35" s="12">
+      <c r="V35" s="12">
         <v>6741.5400000000009</v>
       </c>
-      <c r="M35" s="12">
+      <c r="W35" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K36" s="17" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U36" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="L36" s="12">
+      <c r="V36" s="12">
         <v>2460.5</v>
       </c>
-      <c r="M36" s="12">
+      <c r="W36" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K37" s="18" t="s">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U37" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L37" s="12">
+      <c r="V37" s="12">
         <v>2460.5</v>
       </c>
-      <c r="M37" s="12">
+      <c r="W37" s="12">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K38" s="17" t="s">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U38" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="L38" s="12">
+      <c r="V38" s="12">
         <v>10920</v>
       </c>
-      <c r="M38" s="12">
+      <c r="W38" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K39" s="18" t="s">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U39" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="12">
+      <c r="V39" s="12">
         <v>10920</v>
       </c>
-      <c r="M39" s="12">
+      <c r="W39" s="12">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K40" s="17" t="s">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U40" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L40" s="12">
+      <c r="V40" s="12">
         <v>3736.25</v>
       </c>
-      <c r="M40" s="12">
+      <c r="W40" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K41" s="18" t="s">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U41" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L41" s="12">
+      <c r="V41" s="12">
         <v>3736.25</v>
       </c>
-      <c r="M41" s="12">
+      <c r="W41" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K42" s="17" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U42" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="L42" s="12">
+      <c r="V42" s="12">
         <v>6176.5199999999995</v>
       </c>
-      <c r="M42" s="12">
+      <c r="W42" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K43" s="18" t="s">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U43" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L43" s="12">
+      <c r="V43" s="12">
         <v>6176.5199999999995</v>
       </c>
-      <c r="M43" s="12">
+      <c r="W43" s="12">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K44" s="17" t="s">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U44" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L44" s="12">
+      <c r="V44" s="12">
         <v>3397.68</v>
       </c>
-      <c r="M44" s="12">
+      <c r="W44" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K45" s="18" t="s">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U45" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="12">
+      <c r="V45" s="12">
         <v>3397.68</v>
       </c>
-      <c r="M45" s="12">
+      <c r="W45" s="12">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K46" s="17" t="s">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U46" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="12">
+      <c r="V46" s="12">
         <v>7024.6200000000008</v>
       </c>
-      <c r="M46" s="12">
+      <c r="W46" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K47" s="18" t="s">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U47" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L47" s="12">
+      <c r="V47" s="12">
         <v>7024.6200000000008</v>
       </c>
-      <c r="M47" s="12">
+      <c r="W47" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K48" s="17" t="s">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="U48" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="L48" s="12">
+      <c r="V48" s="12">
         <v>408.17</v>
       </c>
-      <c r="M48" s="12">
+      <c r="W48" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K49" s="18" t="s">
+    <row r="49" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U49" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L49" s="12">
+      <c r="V49" s="12">
         <v>408.17</v>
       </c>
-      <c r="M49" s="12">
+      <c r="W49" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K50" s="17" t="s">
+    <row r="50" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U50" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="12">
+      <c r="V50" s="12">
         <v>1208.3399999999999</v>
       </c>
-      <c r="M50" s="12">
+      <c r="W50" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K51" s="18" t="s">
+    <row r="51" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U51" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L51" s="12">
+      <c r="V51" s="12">
         <v>1208.3399999999999</v>
       </c>
-      <c r="M51" s="12">
+      <c r="W51" s="12">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K52" s="17" t="s">
+    <row r="52" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U52" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="12">
+      <c r="V52" s="12">
         <v>3141.6000000000004</v>
       </c>
-      <c r="M52" s="12">
+      <c r="W52" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K53" s="18" t="s">
+    <row r="53" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U53" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L53" s="12">
+      <c r="V53" s="12">
         <v>3141.6000000000004</v>
       </c>
-      <c r="M53" s="12">
+      <c r="W53" s="12">
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K54" s="17" t="s">
+    <row r="54" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U54" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L54" s="12">
+      <c r="V54" s="12">
         <v>3344.7999999999997</v>
       </c>
-      <c r="M54" s="12">
+      <c r="W54" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K55" s="18" t="s">
+    <row r="55" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U55" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L55" s="12">
+      <c r="V55" s="12">
         <v>3344.7999999999997</v>
       </c>
-      <c r="M55" s="12">
+      <c r="W55" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K56" s="17" t="s">
+    <row r="56" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U56" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L56" s="12">
+      <c r="V56" s="12">
         <v>3770.81</v>
       </c>
-      <c r="M56" s="12">
+      <c r="W56" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K57" s="18" t="s">
+    <row r="57" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U57" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L57" s="12">
+      <c r="V57" s="12">
         <v>3770.81</v>
       </c>
-      <c r="M57" s="12">
+      <c r="W57" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K58" s="17" t="s">
+    <row r="58" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U58" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="L58" s="12">
+      <c r="V58" s="12">
         <v>12680.64</v>
       </c>
-      <c r="M58" s="12">
+      <c r="W58" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K59" s="18" t="s">
+    <row r="59" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U59" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L59" s="12">
+      <c r="V59" s="12">
         <v>12680.64</v>
       </c>
-      <c r="M59" s="12">
+      <c r="W59" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K60" s="17" t="s">
+    <row r="60" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U60" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="L60" s="12">
+      <c r="V60" s="12">
         <v>3333.1200000000003</v>
       </c>
-      <c r="M60" s="12">
+      <c r="W60" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K61" s="18" t="s">
+    <row r="61" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U61" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L61" s="12">
+      <c r="V61" s="12">
         <v>3333.1200000000003</v>
       </c>
-      <c r="M61" s="12">
+      <c r="W61" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K62" s="17" t="s">
+    <row r="62" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U62" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="12">
+      <c r="V62" s="12">
         <v>7401.24</v>
       </c>
-      <c r="M62" s="12">
+      <c r="W62" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K63" s="18" t="s">
+    <row r="63" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U63" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="12">
+      <c r="V63" s="12">
         <v>7401.24</v>
       </c>
-      <c r="M63" s="12">
+      <c r="W63" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K64" s="17" t="s">
+    <row r="64" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U64" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="L64" s="12">
+      <c r="V64" s="12">
         <v>7660.8</v>
       </c>
-      <c r="M64" s="12">
+      <c r="W64" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K65" s="18" t="s">
+    <row r="65" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U65" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="12">
+      <c r="V65" s="12">
         <v>7660.8</v>
       </c>
-      <c r="M65" s="12">
+      <c r="W65" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K66" s="17" t="s">
+    <row r="66" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U66" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="L66" s="12">
+      <c r="V66" s="12">
         <v>4780.6000000000004</v>
       </c>
-      <c r="M66" s="12">
+      <c r="W66" s="12">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K67" s="18" t="s">
+    <row r="67" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U67" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="L67" s="12">
+      <c r="V67" s="12">
         <v>4780.6000000000004</v>
       </c>
-      <c r="M67" s="12">
+      <c r="W67" s="12">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K68" s="17" t="s">
+    <row r="68" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U68" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="L68" s="12">
+      <c r="V68" s="12">
         <v>475.7</v>
       </c>
-      <c r="M68" s="12">
+      <c r="W68" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K69" s="18" t="s">
+    <row r="69" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U69" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L69" s="12">
+      <c r="V69" s="12">
         <v>475.7</v>
       </c>
-      <c r="M69" s="12">
+      <c r="W69" s="12">
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K70" s="17" t="s">
+    <row r="70" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U70" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="L70" s="12">
+      <c r="V70" s="12">
         <v>2118.6</v>
       </c>
-      <c r="M70" s="12">
+      <c r="W70" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K71" s="18" t="s">
+    <row r="71" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U71" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L71" s="12">
+      <c r="V71" s="12">
         <v>2118.6</v>
       </c>
-      <c r="M71" s="12">
+      <c r="W71" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K72" s="17" t="s">
+    <row r="72" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U72" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="L72" s="12">
+      <c r="V72" s="12">
         <v>2744.32</v>
       </c>
-      <c r="M72" s="12">
+      <c r="W72" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K73" s="18" t="s">
+    <row r="73" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U73" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L73" s="12">
+      <c r="V73" s="12">
         <v>2744.32</v>
       </c>
-      <c r="M73" s="12">
+      <c r="W73" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K74" s="17" t="s">
+    <row r="74" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U74" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L74" s="12">
+      <c r="V74" s="12">
         <v>2877.12</v>
       </c>
-      <c r="M74" s="12">
+      <c r="W74" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K75" s="18" t="s">
+    <row r="75" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U75" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L75" s="12">
+      <c r="V75" s="12">
         <v>2877.12</v>
       </c>
-      <c r="M75" s="12">
+      <c r="W75" s="12">
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K76" s="17" t="s">
+    <row r="76" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U76" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="L76" s="12">
+      <c r="V76" s="12">
         <v>1787.1</v>
       </c>
-      <c r="M76" s="12">
+      <c r="W76" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K77" s="18" t="s">
+    <row r="77" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U77" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="L77" s="12">
+      <c r="V77" s="12">
         <v>1787.1</v>
       </c>
-      <c r="M77" s="12">
+      <c r="W77" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K78" s="17" t="s">
+    <row r="78" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U78" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="L78" s="12">
+      <c r="V78" s="12">
         <v>1958.4</v>
       </c>
-      <c r="M78" s="12">
+      <c r="W78" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K79" s="18" t="s">
+    <row r="79" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U79" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L79" s="12">
+      <c r="V79" s="12">
         <v>1958.4</v>
       </c>
-      <c r="M79" s="12">
+      <c r="W79" s="12">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K80" s="17" t="s">
+    <row r="80" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U80" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="L80" s="12">
+      <c r="V80" s="12">
         <v>14605.919999999998</v>
       </c>
-      <c r="M80" s="12">
+      <c r="W80" s="12">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K81" s="18" t="s">
+    <row r="81" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U81" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L81" s="12">
+      <c r="V81" s="12">
         <v>14605.919999999998</v>
       </c>
-      <c r="M81" s="12">
+      <c r="W81" s="12">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K82" s="17" t="s">
+    <row r="82" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U82" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="L82" s="12">
+      <c r="V82" s="12">
         <v>11016</v>
       </c>
-      <c r="M82" s="12">
+      <c r="W82" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K83" s="18" t="s">
+    <row r="83" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U83" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="L83" s="12">
+      <c r="V83" s="12">
         <v>11016</v>
       </c>
-      <c r="M83" s="12">
+      <c r="W83" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K84" s="17" t="s">
+    <row r="84" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U84" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="L84" s="12">
+      <c r="V84" s="12">
         <v>4486.32</v>
       </c>
-      <c r="M84" s="12">
+      <c r="W84" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K85" s="18" t="s">
+    <row r="85" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L85" s="12">
+      <c r="V85" s="12">
         <v>4486.32</v>
       </c>
-      <c r="M85" s="12">
+      <c r="W85" s="12">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K86" s="17" t="s">
+    <row r="86" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U86" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="L86" s="12">
+      <c r="V86" s="12">
         <v>6484.32</v>
       </c>
-      <c r="M86" s="12">
+      <c r="W86" s="12">
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="11:13" x14ac:dyDescent="0.3">
-      <c r="K87" s="18" t="s">
+    <row r="87" spans="21:23" x14ac:dyDescent="0.3">
+      <c r="U87" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L87" s="12">
+      <c r="V87" s="12">
         <v>6484.32</v>
       </c>
-      <c r="M87" s="12">
+      <c r="W87" s="12">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1027" r:id="rId11" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>350520</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>15240</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>632460</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>106680</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId12" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>868680</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>1150620</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId13" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>1257300</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>1539240</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId9"/>
+        <x14:slicer r:id="rId14"/>
       </x14:slicerList>
     </ext>
   </extLst>
